--- a/TestData/ConversionTableFormY.xlsx
+++ b/TestData/ConversionTableFormY.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22502"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\TempUserProfiles\NetworkService\AppData\Local\Packages\oice_16_974fa576_32c1d314_30e4\AC\Temp\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Huan\OneDrive - University of Iowa\Github\EMReliability\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="22" documentId="13_ncr:1_{8EAC423E-31C5-4FF1-9223-31AF2B989AD3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{387C8997-53F6-461A-BD4E-0E145843A9F6}"/>
+  <xr:revisionPtr revIDLastSave="28" documentId="13_ncr:1_{8EAC423E-31C5-4FF1-9223-31AF2B989AD3}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{0F0B874B-2534-4BD7-BEF8-C39B60870387}"/>
   <bookViews>
-    <workbookView xWindow="-2145" yWindow="1380" windowWidth="14745" windowHeight="7365" xr2:uid="{9C32A217-403D-49C1-9C82-7E79386BC57D}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{9C32A217-403D-49C1-9C82-7E79386BC57D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,18 +31,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
-    <t>Theta Score (PIE)</t>
+    <t>rawScore</t>
   </si>
   <si>
-    <t>Unrounded SS</t>
+    <t>thetaScore</t>
   </si>
   <si>
-    <t>Equated Raw Score</t>
-  </si>
-  <si>
-    <t>RawScore</t>
+    <t>unroundedSS</t>
   </si>
 </sst>
 </file>
@@ -90,11 +87,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -107,14 +101,8 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="2" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -430,605 +418,478 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A2C96CCC-9D96-4336-9B23-870C5AAFC60A}">
-  <dimension ref="A1:D42"/>
+  <dimension ref="A1:C42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.45" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="13.7109375" style="3" hidden="1" customWidth="1"/>
-    <col min="2" max="2" width="19.7109375" style="3" customWidth="1"/>
-    <col min="3" max="3" width="16.42578125" style="3" hidden="1" customWidth="1"/>
-    <col min="4" max="4" width="16" style="3" customWidth="1"/>
+    <col min="1" max="1" width="13.36328125" style="2" customWidth="1"/>
+    <col min="2" max="2" width="18.81640625" style="2" customWidth="1"/>
+    <col min="3" max="3" width="16" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A2" s="1">
+        <v>0</v>
+      </c>
+      <c r="B2" s="5">
+        <v>-5</v>
+      </c>
+      <c r="C2" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3" s="4">
+        <v>-4.5979000000000001</v>
+      </c>
+      <c r="C3" s="4">
+        <v>100.02</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A4" s="1">
+        <v>2</v>
+      </c>
+      <c r="B4" s="4">
+        <v>-3.7214999999999998</v>
+      </c>
+      <c r="C4" s="4">
+        <v>101.67</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A5" s="1">
         <v>3</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="A2" s="2">
-        <v>0</v>
-      </c>
-      <c r="B2" s="6">
-        <v>0</v>
-      </c>
-      <c r="C2" s="7">
-        <v>-5</v>
-      </c>
-      <c r="D2" s="4">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="A3" s="2">
-        <v>1</v>
-      </c>
-      <c r="B3" s="8">
-        <v>0.97299999999999998</v>
-      </c>
-      <c r="C3" s="5">
-        <v>-4.5979000000000001</v>
-      </c>
-      <c r="D3" s="5">
-        <v>100.02</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="A4" s="2">
-        <v>2</v>
-      </c>
-      <c r="B4" s="8">
-        <v>1.954</v>
-      </c>
-      <c r="C4" s="5">
-        <v>-3.7214999999999998</v>
-      </c>
-      <c r="D4" s="5">
-        <v>101.67</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="A5" s="2">
-        <v>3</v>
-      </c>
-      <c r="B5" s="8">
-        <v>2.9359999999999999</v>
-      </c>
-      <c r="C5" s="5">
+      <c r="B5" s="4">
         <v>-3.2273000000000001</v>
       </c>
-      <c r="D5" s="5">
+      <c r="C5" s="4">
         <v>103.16</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="A6" s="2">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A6" s="1">
         <v>4</v>
       </c>
-      <c r="B6" s="8">
-        <v>3.9180000000000001</v>
-      </c>
-      <c r="C6" s="5">
+      <c r="B6" s="4">
         <v>-2.8807</v>
       </c>
-      <c r="D6" s="5">
+      <c r="C6" s="4">
         <v>104.51</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="A7" s="2">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A7" s="1">
         <v>5</v>
       </c>
-      <c r="B7" s="8">
-        <v>4.9000000000000004</v>
-      </c>
-      <c r="C7" s="5">
+      <c r="B7" s="4">
         <v>-2.6107</v>
       </c>
-      <c r="D7" s="5">
+      <c r="C7" s="4">
         <v>105.73</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="A8" s="2">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A8" s="1">
         <v>6</v>
       </c>
-      <c r="B8" s="8">
-        <v>5.8810000000000002</v>
-      </c>
-      <c r="C8" s="5">
+      <c r="B8" s="4">
         <v>-2.3866000000000001</v>
       </c>
-      <c r="D8" s="5">
+      <c r="C8" s="4">
         <v>106.83</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="A9" s="2">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A9" s="1">
         <v>7</v>
       </c>
-      <c r="B9" s="8">
-        <v>6.8630000000000004</v>
-      </c>
-      <c r="C9" s="5">
+      <c r="B9" s="4">
         <v>-2.1924000000000001</v>
       </c>
-      <c r="D9" s="5">
+      <c r="C9" s="4">
         <v>107.83</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="A10" s="2">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A10" s="1">
         <v>8</v>
       </c>
-      <c r="B10" s="8">
-        <v>7.9359999999999999</v>
-      </c>
-      <c r="C10" s="5">
+      <c r="B10" s="4">
         <v>-2.0190999999999999</v>
       </c>
-      <c r="D10" s="5">
+      <c r="C10" s="4">
         <v>108.83</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="A11" s="2">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A11" s="1">
         <v>9</v>
       </c>
-      <c r="B11" s="8">
-        <v>9.1780000000000008</v>
-      </c>
-      <c r="C11" s="5">
+      <c r="B11" s="4">
         <v>-1.8611</v>
       </c>
-      <c r="D11" s="5">
+      <c r="C11" s="4">
         <v>109.85</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="A12" s="2">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A12" s="1">
         <v>10</v>
       </c>
-      <c r="B12" s="8">
-        <v>10.355</v>
-      </c>
-      <c r="C12" s="5">
+      <c r="B12" s="4">
         <v>-1.7144999999999999</v>
       </c>
-      <c r="D12" s="5">
+      <c r="C12" s="4">
         <v>110.71</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="A13" s="2">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A13" s="1">
         <v>11</v>
       </c>
-      <c r="B13" s="8">
-        <v>11.442</v>
-      </c>
-      <c r="C13" s="5">
+      <c r="B13" s="4">
         <v>-1.5766</v>
       </c>
-      <c r="D13" s="5">
+      <c r="C13" s="4">
         <v>111.44</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="A14" s="2">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A14" s="1">
         <v>12</v>
       </c>
-      <c r="B14" s="8">
-        <v>12.521000000000001</v>
-      </c>
-      <c r="C14" s="5">
+      <c r="B14" s="4">
         <v>-1.4457</v>
       </c>
-      <c r="D14" s="5">
+      <c r="C14" s="4">
         <v>112.11</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="A15" s="2">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A15" s="1">
         <v>13</v>
       </c>
-      <c r="B15" s="8">
-        <v>13.675000000000001</v>
-      </c>
-      <c r="C15" s="5">
+      <c r="B15" s="4">
         <v>-1.32</v>
       </c>
-      <c r="D15" s="5">
+      <c r="C15" s="4">
         <v>112.76</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="A16" s="2">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A16" s="1">
         <v>14</v>
       </c>
-      <c r="B16" s="8">
-        <v>14.852</v>
-      </c>
-      <c r="C16" s="5">
+      <c r="B16" s="4">
         <v>-1.1986000000000001</v>
       </c>
-      <c r="D16" s="5">
+      <c r="C16" s="4">
         <v>113.39</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="A17" s="2">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A17" s="1">
         <v>15</v>
       </c>
-      <c r="B17" s="8">
-        <v>15.984999999999999</v>
-      </c>
-      <c r="C17" s="5">
+      <c r="B17" s="4">
         <v>-1.0803</v>
       </c>
-      <c r="D17" s="5">
+      <c r="C17" s="4">
         <v>113.96</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="A18" s="2">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A18" s="1">
         <v>16</v>
       </c>
-      <c r="B18" s="8">
-        <v>17.085000000000001</v>
-      </c>
-      <c r="C18" s="5">
+      <c r="B18" s="4">
         <v>-0.96440000000000003</v>
       </c>
-      <c r="D18" s="5">
+      <c r="C18" s="4">
         <v>114.49</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="A19" s="2">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A19" s="1">
         <v>17</v>
       </c>
-      <c r="B19" s="8">
-        <v>18.172000000000001</v>
-      </c>
-      <c r="C19" s="5">
+      <c r="B19" s="4">
         <v>-0.85009999999999997</v>
       </c>
-      <c r="D19" s="5">
+      <c r="C19" s="4">
         <v>114.99</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="A20" s="2">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A20" s="1">
         <v>18</v>
       </c>
-      <c r="B20" s="8">
-        <v>19.265999999999998</v>
-      </c>
-      <c r="C20" s="5">
+      <c r="B20" s="4">
         <v>-0.73660000000000003</v>
       </c>
-      <c r="D20" s="5">
+      <c r="C20" s="4">
         <v>115.49</v>
       </c>
     </row>
-    <row r="21" spans="1:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="A21" s="2">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A21" s="1">
         <v>19</v>
       </c>
-      <c r="B21" s="8">
-        <v>20.373000000000001</v>
-      </c>
-      <c r="C21" s="5">
+      <c r="B21" s="4">
         <v>-0.62339999999999995</v>
       </c>
-      <c r="D21" s="5">
+      <c r="C21" s="4">
         <v>115.98</v>
       </c>
     </row>
-    <row r="22" spans="1:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="A22" s="2">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A22" s="1">
         <v>20</v>
       </c>
-      <c r="B22" s="8">
-        <v>21.469000000000001</v>
-      </c>
-      <c r="C22" s="5">
+      <c r="B22" s="4">
         <v>-0.50970000000000004</v>
       </c>
-      <c r="D22" s="5">
+      <c r="C22" s="4">
         <v>116.46</v>
       </c>
     </row>
-    <row r="23" spans="1:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="A23" s="2">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A23" s="1">
         <v>21</v>
       </c>
-      <c r="B23" s="8">
-        <v>22.521999999999998</v>
-      </c>
-      <c r="C23" s="5">
+      <c r="B23" s="4">
         <v>-0.39489999999999997</v>
       </c>
-      <c r="D23" s="5">
+      <c r="C23" s="4">
         <v>116.92</v>
       </c>
     </row>
-    <row r="24" spans="1:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="A24" s="2">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A24" s="1">
         <v>22</v>
       </c>
-      <c r="B24" s="8">
-        <v>23.518000000000001</v>
-      </c>
-      <c r="C24" s="5">
+      <c r="B24" s="4">
         <v>-0.27839999999999998</v>
       </c>
-      <c r="D24" s="5">
+      <c r="C24" s="4">
         <v>117.35</v>
       </c>
     </row>
-    <row r="25" spans="1:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="A25" s="2">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A25" s="1">
         <v>23</v>
       </c>
-      <c r="B25" s="8">
-        <v>24.475999999999999</v>
-      </c>
-      <c r="C25" s="5">
+      <c r="B25" s="4">
         <v>-0.1593</v>
       </c>
-      <c r="D25" s="5">
+      <c r="C25" s="4">
         <v>117.78</v>
       </c>
     </row>
-    <row r="26" spans="1:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="A26" s="2">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A26" s="1">
         <v>24</v>
       </c>
-      <c r="B26" s="8">
-        <v>25.427</v>
-      </c>
-      <c r="C26" s="5">
+      <c r="B26" s="4">
         <v>-3.6999999999999998E-2</v>
       </c>
-      <c r="D26" s="5">
+      <c r="C26" s="4">
         <v>118.2</v>
       </c>
     </row>
-    <row r="27" spans="1:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="A27" s="2">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A27" s="1">
         <v>25</v>
       </c>
-      <c r="B27" s="8">
-        <v>26.372</v>
-      </c>
-      <c r="C27" s="5">
+      <c r="B27" s="4">
         <v>8.9499999999999996E-2</v>
       </c>
-      <c r="D27" s="5">
+      <c r="C27" s="4">
         <v>118.63</v>
       </c>
     </row>
-    <row r="28" spans="1:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="A28" s="2">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A28" s="1">
         <v>26</v>
       </c>
-      <c r="B28" s="8">
-        <v>27.31</v>
-      </c>
-      <c r="C28" s="5">
+      <c r="B28" s="4">
         <v>0.22109999999999999</v>
       </c>
-      <c r="D28" s="5">
+      <c r="C28" s="4">
         <v>119.07</v>
       </c>
     </row>
-    <row r="29" spans="1:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="A29" s="2">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A29" s="1">
         <v>27</v>
       </c>
-      <c r="B29" s="8">
-        <v>28.244</v>
-      </c>
-      <c r="C29" s="5">
+      <c r="B29" s="4">
         <v>0.35920000000000002</v>
       </c>
-      <c r="D29" s="5">
+      <c r="C29" s="4">
         <v>119.53</v>
       </c>
     </row>
-    <row r="30" spans="1:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="A30" s="2">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A30" s="1">
         <v>28</v>
       </c>
-      <c r="B30" s="8">
-        <v>29.178000000000001</v>
-      </c>
-      <c r="C30" s="5">
+      <c r="B30" s="4">
         <v>0.505</v>
       </c>
-      <c r="D30" s="5">
+      <c r="C30" s="4">
         <v>120</v>
       </c>
     </row>
-    <row r="31" spans="1:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="A31" s="2">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A31" s="1">
         <v>29</v>
       </c>
-      <c r="B31" s="8">
-        <v>30.113</v>
-      </c>
-      <c r="C31" s="5">
+      <c r="B31" s="4">
         <v>0.66039999999999999</v>
       </c>
-      <c r="D31" s="5">
+      <c r="C31" s="4">
         <v>120.5</v>
       </c>
     </row>
-    <row r="32" spans="1:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="A32" s="2">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A32" s="1">
         <v>30</v>
       </c>
-      <c r="B32" s="8">
-        <v>31.042999999999999</v>
-      </c>
-      <c r="C32" s="5">
+      <c r="B32" s="4">
         <v>0.82769999999999999</v>
       </c>
-      <c r="D32" s="5">
+      <c r="C32" s="4">
         <v>121.02</v>
       </c>
     </row>
-    <row r="33" spans="1:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="A33" s="2">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A33" s="1">
         <v>31</v>
       </c>
-      <c r="B33" s="8">
-        <v>31.966999999999999</v>
-      </c>
-      <c r="C33" s="5">
+      <c r="B33" s="4">
         <v>1.0101</v>
       </c>
-      <c r="D33" s="5">
+      <c r="C33" s="4">
         <v>121.58</v>
       </c>
     </row>
-    <row r="34" spans="1:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="A34" s="2">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A34" s="1">
         <v>32</v>
       </c>
-      <c r="B34" s="8">
-        <v>32.886000000000003</v>
-      </c>
-      <c r="C34" s="5">
+      <c r="B34" s="4">
         <v>1.2115</v>
       </c>
-      <c r="D34" s="5">
+      <c r="C34" s="4">
         <v>122.18</v>
       </c>
     </row>
-    <row r="35" spans="1:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="A35" s="2">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A35" s="1">
         <v>33</v>
       </c>
-      <c r="B35" s="8">
-        <v>33.795999999999999</v>
-      </c>
-      <c r="C35" s="5">
+      <c r="B35" s="4">
         <v>1.4379</v>
       </c>
-      <c r="D35" s="5">
+      <c r="C35" s="4">
         <v>122.82</v>
       </c>
     </row>
-    <row r="36" spans="1:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="A36" s="2">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A36" s="1">
         <v>34</v>
       </c>
-      <c r="B36" s="8">
-        <v>34.715000000000003</v>
-      </c>
-      <c r="C36" s="5">
+      <c r="B36" s="4">
         <v>1.6979</v>
       </c>
-      <c r="D36" s="5">
+      <c r="C36" s="4">
         <v>123.52</v>
       </c>
     </row>
-    <row r="37" spans="1:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="A37" s="2">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A37" s="1">
         <v>35</v>
       </c>
-      <c r="B37" s="8">
-        <v>35.658999999999999</v>
-      </c>
-      <c r="C37" s="5">
+      <c r="B37" s="4">
         <v>2.0053000000000001</v>
       </c>
-      <c r="D37" s="5">
+      <c r="C37" s="4">
         <v>124.31</v>
       </c>
     </row>
-    <row r="38" spans="1:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="A38" s="2">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A38" s="1">
         <v>36</v>
       </c>
-      <c r="B38" s="8">
-        <v>36.616</v>
-      </c>
-      <c r="C38" s="5">
+      <c r="B38" s="4">
         <v>2.3828999999999998</v>
       </c>
-      <c r="D38" s="5">
+      <c r="C38" s="4">
         <v>125.21</v>
       </c>
     </row>
-    <row r="39" spans="1:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="A39" s="2">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A39" s="1">
         <v>37</v>
       </c>
-      <c r="B39" s="8">
-        <v>37.587000000000003</v>
-      </c>
-      <c r="C39" s="5">
+      <c r="B39" s="4">
         <v>2.8744000000000001</v>
       </c>
-      <c r="D39" s="5">
+      <c r="C39" s="4">
         <v>126.23</v>
       </c>
     </row>
-    <row r="40" spans="1:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="A40" s="2">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A40" s="1">
         <v>38</v>
       </c>
-      <c r="B40" s="8">
-        <v>38.6</v>
-      </c>
-      <c r="C40" s="5">
+      <c r="B40" s="4">
         <v>3.5788000000000002</v>
       </c>
-      <c r="D40" s="5">
+      <c r="C40" s="4">
         <v>127.47</v>
       </c>
     </row>
-    <row r="41" spans="1:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="A41" s="2">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A41" s="1">
         <v>39</v>
       </c>
-      <c r="B41" s="8">
-        <v>39.393000000000001</v>
-      </c>
-      <c r="C41" s="5">
+      <c r="B41" s="4">
         <v>4.8181000000000003</v>
       </c>
-      <c r="D41" s="5">
+      <c r="C41" s="4">
         <v>128.72999999999999</v>
       </c>
     </row>
-    <row r="42" spans="1:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="A42" s="2">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A42" s="1">
         <v>40</v>
       </c>
-      <c r="B42" s="6">
-        <v>40</v>
-      </c>
-      <c r="C42" s="7">
+      <c r="B42" s="5">
         <v>5</v>
       </c>
-      <c r="D42" s="4">
+      <c r="C42" s="3">
         <v>130</v>
       </c>
     </row>
